--- a/Plan_DataAcquisition/Plan1_ChargeAmplifier.xlsx
+++ b/Plan_DataAcquisition/Plan1_ChargeAmplifier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comic\Desktop\FaultDetec._Analog_Circuit\Plan_DataAcquisition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comic\Desktop\CircuitFault_Detection\Plan_DataAcquisition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EA8DBE-FB07-4B02-93EF-3B58ACB81CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700AF4E-6D9D-4007-8E14-0ADF9D9DCE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38445" yWindow="-405" windowWidth="16050" windowHeight="19875" xr2:uid="{5445B98A-BA7F-44A4-82D6-BE22C8866798}"/>
+    <workbookView xWindow="38535" yWindow="-1230" windowWidth="16050" windowHeight="19875" xr2:uid="{5445B98A-BA7F-44A4-82D6-BE22C8866798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1939,7 +1939,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G63" xr:uid="{BBE8EF04-2C60-4BDE-9CB2-4D2A318AE92B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
